--- a/src/books.xlsx
+++ b/src/books.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Chức năng check in" r:id="rId1" sheetId="2"/>
     <sheet name="Chức năng đăng nhập" r:id="rId2" sheetId="3"/>
+    <sheet name="Chức năng đăng xuất" r:id="rId6" sheetId="4"/>
+    <sheet name="Validation" r:id="rId7" sheetId="5"/>
+    <sheet name="Chức năng đổi mật khẩu" r:id="rId8" sheetId="6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -118,6 +121,149 @@
   </si>
   <si>
     <t>0776274144</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Inputdata</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Check in hội viên: boolean checkin(input)</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Đăng nhập : boolean dangNhapToApp(username, password)</t>
+  </si>
+  <si>
+    <t>username: null, password: null</t>
+  </si>
+  <si>
+    <t>username: NV01921, password: 2213</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>username: NV01, password: 123456</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>username: NV02, password: 123456</t>
+  </si>
+  <si>
+    <t>Kiểm tra chuổi có phải là số nguyên : boolean checkInt(input)</t>
+  </si>
+  <si>
+    <t>input: null</t>
+  </si>
+  <si>
+    <t>input: 12a</t>
+  </si>
+  <si>
+    <t>input: 12</t>
+  </si>
+  <si>
+    <t>tru</t>
+  </si>
+  <si>
+    <t>Kiểm tra chuổi có phải là số thực : boolean checkDouble(input)</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>input: 12.5a</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>input: 0.5</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>Kiểm tra chuổi có phải là định dạng ngày không : boolean checkToDate(input, regex)</t>
+  </si>
+  <si>
+    <t>input: null, regex: null</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>input: 12/05/2001, regex: dd/MM/yyyy</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>input: 12/05/2001, regex: dd-MM-yyyy</t>
+  </si>
+  <si>
+    <t>Đăng xuất: dangxuat()</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Auth=null</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu : boolean doiMatKhuUser(oldpassword, newpassword1, newpassword2)</t>
+  </si>
+  <si>
+    <t>oldpassword: 111111, newpassword1: 123456a, newpassword2: 123456a</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 1234567, newpassword2: 123456a</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 123, newpassword2: 123</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 0123456789zxcvf, newpassword2: 0123456789zxcvf</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 123456a, newpassword2: 123456a</t>
+  </si>
+  <si>
+    <t>oldpassword: 111111, newpassword1: 123456a, newpassword2: 123456a
+Ma NV: NV01, pass: 123456</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 1234567, newpassword2: 123456a
+Ma NV: NV02, pass: 123456</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 123, newpassword2: 123
+Ma NV: NV03, pass: 123456</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 0123456789zxcvf, newpassword2: 0123456789zxcvf
+Ma NV: NV04, pass: 123456</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 123456a, newpassword2: 123456a
+Ma NV: NV10, pass: 123456</t>
   </si>
 </sst>
 </file>
@@ -125,7 +271,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +297,206 @@
       <b val="true"/>
       <color indexed="9"/>
     </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="72">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +523,338 @@
         <fgColor indexed="12"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -209,17 +883,172 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="4" fillId="7" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="5" fillId="9" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="6" fillId="11" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="13" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="15" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="17" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="19" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="21" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="23" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="25" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="27" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="29" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="31" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="33" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="35" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="37" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="39" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="41" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="43" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="45" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="47" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="49" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="51" fontId="26" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="53" fontId="27" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="55" fontId="28" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="57" fontId="29" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="59" fontId="30" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="61" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="63" fontId="32" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="65" fontId="33" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="67" fontId="34" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="35" fillId="69" fontId="35" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="71" borderId="36" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -508,27 +1337,27 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="4.39453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="51.46875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.1875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="46.65234375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.9453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.27734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.3359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.02734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
+      <c r="B1" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -536,13 +1365,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -550,16 +1379,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -578,95 +1407,461 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.54296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="51.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="62.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.90625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.39453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="54.94921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.484375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.3359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.02734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="17.5" r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="C2" t="s" s="62">
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="C3" t="s" s="62">
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="C4" t="s" s="62">
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="C5" t="s" s="62">
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.39453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.7734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.27734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.3359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.02734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.39453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="76.16015625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.3359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.02734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.39453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="78.3125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="82.66796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.3359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.02734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/books.xlsx
+++ b/src/books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -172,6 +172,26 @@
   </si>
   <si>
     <t xml:space="preserve">input: , regex: </t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 123456a, newpassword2: 123456a
+Ma NV: NV010, pass: 123456</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 123456a, newpassword2: 123456a
+Ma NV: NV06, pass: 123456</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 1234567, newpassword2: 123456a
+Ma NV: NV01, pass: 123456</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 123, newpassword2: 123
+Ma NV: NV01, pass: 123456</t>
+  </si>
+  <si>
+    <t>oldpassword: 123456, newpassword1: 123456a, newpassword2: 123456a
+Ma NV: NV04, pass: 123456</t>
   </si>
 </sst>
 </file>
@@ -179,7 +199,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +255,116 @@
       <b val="true"/>
       <color indexed="9"/>
     </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="14.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +426,188 @@
         <fgColor indexed="12"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -361,11 +669,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
@@ -381,7 +743,40 @@
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="7" fillId="10" fontId="7" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="8" fillId="12" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="14" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="16" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="18" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="12" fillId="20" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="22" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="24" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="26" fontId="15" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="28" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="30" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="32" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="34" fontId="19" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="36" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="38" fontId="21" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="22" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="42" fontId="23" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="44" fontId="24" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="46" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="26" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
@@ -740,38 +1135,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.36328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="54.90625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.453125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.39453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="54.94921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.484375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.3359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.02734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="17.5" r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D2" t="s">
@@ -781,14 +1176,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
@@ -798,14 +1193,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
@@ -815,14 +1210,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
@@ -845,38 +1240,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.36328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.7265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.39453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.7734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.27734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.3359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.02734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="17.5" r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="32" t="s">
         <v>36</v>
       </c>
       <c r="D2" t="s">
@@ -932,7 +1327,7 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s" s="16">
+      <c r="C2" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D2" t="s">
@@ -949,7 +1344,7 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s" s="16">
+      <c r="C3" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
@@ -966,7 +1361,7 @@
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s" s="16">
+      <c r="C4" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
@@ -983,7 +1378,7 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s" s="16">
+      <c r="C5" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D5" t="s">
@@ -1000,7 +1395,7 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s" s="16">
+      <c r="C6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
@@ -1017,7 +1412,7 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s" s="16">
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
@@ -1034,7 +1429,7 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="16">
+      <c r="C8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D8" t="s">
@@ -1051,7 +1446,7 @@
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="16">
+      <c r="C9" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
@@ -1068,7 +1463,7 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="16">
+      <c r="C10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
@@ -1091,38 +1486,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.36328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="78.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="82.6328125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.36328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.39453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="78.3125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="82.66796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.3359375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.02734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="17.5" r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s" s="49">
         <v>40</v>
       </c>
       <c r="D2" t="s">
@@ -1132,15 +1527,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
+      <c r="C3" t="s" s="49">
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1149,15 +1544,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
+      <c r="C4" t="s" s="49">
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1166,14 +1561,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s" s="49">
         <v>43</v>
       </c>
       <c r="D5" t="s">
@@ -1183,15 +1578,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>44</v>
+      <c r="C6" t="s" s="49">
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
